--- a/Data_Same_as_for_Code (We will need to clean these up and consolidate them by subtopic)/EVConsumerExperience/EV.barriers.xlsx
+++ b/Data_Same_as_for_Code (We will need to clean these up and consolidate them by subtopic)/EVConsumerExperience/EV.barriers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanbusman/Desktop/Project-1-blood.batteries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chad\Desktop\AI Homework\Project1_Revised_EVPerfandConsExp\Data_Same_as_for_Code (We will need to clean these up and consolidate them by subtopic)\EVConsumerExperience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3970A722-9A3F-BB43-87C6-B0622BDFC6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFFB45E-611B-4EF9-9C05-A7A3E4A6015C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="4940" windowWidth="27640" windowHeight="16880" xr2:uid="{EE7FD4C7-619F-6343-8A3E-E0218FAA75AD}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7785" xr2:uid="{EE7FD4C7-619F-6343-8A3E-E0218FAA75AD}"/>
   </bookViews>
   <sheets>
     <sheet name="EV Demographics" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Where to charge</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -414,18 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786DCDB6-90FA-2B41-9C9A-0461642C8625}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="21.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -433,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,7 +444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -449,7 +452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,7 +460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -465,7 +468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -473,7 +476,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -481,12 +484,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
